--- a/data/trans_bre/P75-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P75-Estudios-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 2,07</t>
+          <t>-5,12; 2,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 1,91</t>
+          <t>-5,54; 1,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 10,07</t>
+          <t>-19,87; 10,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-27,78; 13,31</t>
+          <t>-29,1; 12,8</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 5,14</t>
+          <t>-0,67; 5,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 3,08</t>
+          <t>-1,05; 3,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 19,14</t>
+          <t>-2,75; 19,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 24,03</t>
+          <t>-7,05; 25,49</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 9,22</t>
+          <t>-3,31; 8,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 7,35</t>
+          <t>-0,94; 6,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 41,83</t>
+          <t>-11,85; 41,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 85,29</t>
+          <t>-7,35; 78,19</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 2,81</t>
+          <t>-1,84; 2,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,33</t>
+          <t>-0,89; 2,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 11,08</t>
+          <t>-6,59; 11,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 17,55</t>
+          <t>-5,91; 20,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P75-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P75-Estudios-trans_bre.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 2,17</t>
+          <t>-5,18; 2,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 1,93</t>
+          <t>-5,27; 1,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 10,24</t>
+          <t>-20,7; 12,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,1; 12,8</t>
+          <t>-28,61; 12,35</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 5,17</t>
+          <t>-1,0; 5,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,24</t>
+          <t>-1,36; 3,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 19,26</t>
+          <t>-3,6; 20,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 25,49</t>
+          <t>-9,02; 25,75</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 8,84</t>
+          <t>-2,89; 8,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 6,92</t>
+          <t>-1,01; 7,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 41,24</t>
+          <t>-11,02; 38,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 78,19</t>
+          <t>-8,36; 82,06</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,81</t>
+          <t>-1,58; 2,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 2,67</t>
+          <t>-0,84; 2,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 11,22</t>
+          <t>-5,79; 10,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 20,89</t>
+          <t>-5,52; 19,3</t>
         </is>
       </c>
     </row>
